--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,10 @@
     <sheet name="practice" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="nf" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="tf" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="tf_bv" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="tf_of" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="nf_bv" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="nf_of" sheetId="9" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -529,7 +533,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>0</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>0</v>
@@ -900,7 +904,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>0</v>
@@ -933,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0</v>
@@ -941,7 +945,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>0</v>
@@ -953,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>0</v>
@@ -971,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5" s="9" t="n">
         <v>0</v>
@@ -982,7 +986,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>0</v>
@@ -1015,26 +1019,52 @@
         <v>0</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -2664,8 +2694,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3956,824 +3986,304 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
@@ -4943,8 +4453,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6235,824 +5745,304 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
@@ -7213,4 +6203,7040 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Trials.xlsx
+++ b/Trials.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0</v>
@@ -7972,7 +7972,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M2" s="9" t="n">
         <v>0</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M3" s="9" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M5" s="9" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M9" s="9" t="n">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M10" s="9" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M12" s="9" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M15" s="9" t="n">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M19" s="9" t="n">
         <v>0</v>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M20" s="9" t="n">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M21" s="9" t="n">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M23" s="9" t="n">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M25" s="9" t="n">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M26" s="9" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M27" s="9" t="n">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>0</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M31" s="9" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9" t="n">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M3" s="9" t="n">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>0</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M5" s="9" t="n">
         <v>0</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9" t="n">
         <v>0</v>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9" t="n">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9" t="n">
         <v>0</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>0</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9" t="n">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9" t="n">
         <v>0</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M20" s="9" t="n">
         <v>0</v>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9" t="n">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9" t="n">
         <v>0</v>
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9" t="n">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M27" s="9" t="n">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M31" s="9" t="n">
         <v>0</v>
